--- a/employees.xlsx
+++ b/employees.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>IB</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>edsfr</t>
+  </si>
+  <si>
+    <t>Es apto</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R6"/>
+      <selection activeCell="A2" sqref="A2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +507,7 @@
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -559,8 +562,11 @@
       <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45163</v>
       </c>
@@ -615,8 +621,11 @@
       <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45163</v>
       </c>
@@ -671,8 +680,11 @@
       <c r="R3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45164</v>
       </c>
@@ -727,8 +739,11 @@
       <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45164</v>
       </c>
@@ -783,8 +798,11 @@
       <c r="R5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45163</v>
       </c>
@@ -817,6 +835,44 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
